--- a/documentation/Phase 2 experiments/Experiments.xlsx
+++ b/documentation/Phase 2 experiments/Experiments.xlsx
@@ -5,27 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V\Documents\School\Project 2\Github\documentation\Phase 2 experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebruiker\Documents\Uni\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12108D00-CF63-4E0E-BD9F-9289F5B2A8EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8702DBD-7384-400D-ADE9-2A23447D2F2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Open Loop" sheetId="1" r:id="rId1"/>
+    <sheet name="Feedback" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>x</t>
   </si>
@@ -60,13 +66,22 @@
     <t>Landing Time (Feedback)</t>
   </si>
   <si>
-    <t>Landing Velocity</t>
+    <t>Days</t>
   </si>
   <si>
-    <t>Landing Position</t>
+    <t>End Position (m)</t>
+  </si>
+  <si>
+    <t>Ending Velocity (m/s)</t>
   </si>
   <si>
     <t>Landing Angle</t>
+  </si>
+  <si>
+    <t>Landing Velocity (m/s)</t>
+  </si>
+  <si>
+    <t>Landing Position (m)</t>
   </si>
 </sst>
 </file>
@@ -98,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -139,30 +154,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -181,7 +172,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -192,28 +185,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -222,11 +205,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,448 +535,2020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFA795-07D1-4DA6-81B9-DD5CB576DC0E}">
-  <dimension ref="C7:S31"/>
+  <dimension ref="C2:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="7" width="10.109375" customWidth="1"/>
+    <col min="4" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="11" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="16" width="10.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="D7" s="8" t="s">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17" t="s">
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>196</v>
+      </c>
+      <c r="I4" s="2">
         <v>10</v>
       </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="L5">
+        <v>-100</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="4"/>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="4"/>
+      <c r="L7">
+        <v>-1000</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16"/>
       <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C8" s="9"/>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="7"/>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="4"/>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>1200000</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="4"/>
+      <c r="L9">
+        <v>-10000</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="4"/>
+      <c r="L10">
+        <v>10000</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="4"/>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="4"/>
+      <c r="L12">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="D11">
+      <c r="M12" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="4"/>
+      <c r="L13">
         <v>100</v>
       </c>
-      <c r="E11" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="D12">
+      <c r="M13" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="4"/>
+      <c r="L14">
         <v>-1000</v>
       </c>
-      <c r="E12" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="D13">
+      <c r="M14" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="4"/>
+      <c r="L15">
         <v>1000</v>
       </c>
-      <c r="E13" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="D14">
-        <v>-5000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="D15">
-        <v>5000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="M15" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="4"/>
+      <c r="L16">
         <v>-10000</v>
       </c>
-      <c r="E16" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="4"/>
+      <c r="L17">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
-        <v>1200000</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E18" s="3">
+      <c r="M17" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <v>1200000</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E19" s="3">
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="4"/>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>1200000</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E20" s="3">
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="4"/>
+      <c r="L19">
+        <v>-100</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <v>1200000</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E21" s="3">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="4"/>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
         <v>1200000</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E22" s="3">
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="4"/>
+      <c r="L21">
+        <v>-1000</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
         <v>1200000</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E23" s="3">
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="4"/>
+      <c r="L22">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <v>1200000</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="E31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="6"/>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="4"/>
+      <c r="L23">
+        <v>-10000</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="4"/>
+      <c r="L24">
+        <v>10000</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D33" s="20"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+    </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+    </row>
+    <row r="54" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+    </row>
+    <row r="55" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
+  <mergeCells count="2">
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CB71-A509-4AC5-AC8E-6056CE32F9C4}">
+  <dimension ref="B2:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="11" max="14" width="11.21875" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>196</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>-100</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4"/>
+      <c r="K5">
+        <v>-100</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="4"/>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>-1000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="4"/>
+      <c r="K7">
+        <v>-1000</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="4"/>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>-10000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="4"/>
+      <c r="K9">
+        <v>-10000</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="4"/>
+      <c r="K10">
+        <v>10000</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="4"/>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>-100</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="4"/>
+      <c r="K12">
+        <v>-100</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="4"/>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>-1000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="4"/>
+      <c r="K14">
+        <v>-1000</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="4"/>
+      <c r="K15">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>-10000</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="4"/>
+      <c r="K16">
+        <v>-10000</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="4"/>
+      <c r="K17">
+        <v>10000</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="4"/>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>-100</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="4"/>
+      <c r="K19">
+        <v>-100</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="4"/>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>-1000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="4"/>
+      <c r="K21">
+        <v>-1000</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="4"/>
+      <c r="K22">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>-10000</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="4"/>
+      <c r="K23">
+        <v>-10000</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>10000</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="4"/>
+      <c r="K24">
+        <v>10000</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/Phase 2 experiments/Experiments.xlsx
+++ b/documentation/Phase 2 experiments/Experiments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebruiker\Documents\Uni\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V\Documents\School\Project 2\Github\documentation\Phase 2 experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8702DBD-7384-400D-ADE9-2A23447D2F2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A190E3-661D-4F27-AEC7-3700DE5F73D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Loop" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>x</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Landing Position (m)</t>
+  </si>
+  <si>
+    <t>With wind ?</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -196,15 +202,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -220,6 +217,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFA795-07D1-4DA6-81B9-DD5CB576DC0E}">
   <dimension ref="C2:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,12 +565,12 @@
         <v>7</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
@@ -587,7 +593,7 @@
       <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -596,7 +602,7 @@
       <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -625,7 +631,7 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <v>196</v>
       </c>
       <c r="I4" s="2">
@@ -634,7 +640,7 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="11">
         <v>40</v>
       </c>
       <c r="L4">
@@ -663,7 +669,7 @@
       <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="4"/>
@@ -693,7 +699,7 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="4"/>
@@ -723,7 +729,7 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="4"/>
@@ -739,10 +745,10 @@
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -758,7 +764,7 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="4"/>
@@ -792,7 +798,7 @@
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
@@ -823,7 +829,7 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="4"/>
@@ -854,7 +860,7 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="4"/>
@@ -885,7 +891,7 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="4"/>
@@ -916,7 +922,7 @@
       <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="4"/>
@@ -947,7 +953,7 @@
       <c r="G14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="4"/>
@@ -978,7 +984,7 @@
       <c r="G15" s="4">
         <v>0</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -1009,7 +1015,7 @@
       <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="4"/>
@@ -1040,7 +1046,7 @@
       <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="4"/>
@@ -1071,7 +1077,7 @@
       <c r="G18" s="4">
         <v>0</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="4"/>
@@ -1102,7 +1108,7 @@
       <c r="G19" s="4">
         <v>0</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="4"/>
@@ -1133,7 +1139,7 @@
       <c r="G20" s="4">
         <v>0</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="4"/>
@@ -1164,7 +1170,7 @@
       <c r="G21" s="4">
         <v>0</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="4"/>
@@ -1195,7 +1201,7 @@
       <c r="G22" s="4">
         <v>0</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="4"/>
@@ -1226,7 +1232,7 @@
       <c r="G23" s="4">
         <v>0</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="4"/>
@@ -1257,7 +1263,7 @@
       <c r="G24" s="4">
         <v>0</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="4"/>
@@ -1314,20 +1320,20 @@
       <c r="P31" s="7"/>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D33" s="20"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="20"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="20"/>
+      <c r="O33" s="17"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="16"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D34" s="7"/>
@@ -1693,21 +1699,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CB71-A509-4AC5-AC8E-6056CE32F9C4}">
-  <dimension ref="B2:O24"/>
+  <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="11" max="14" width="11.21875" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" customWidth="1"/>
+    <col min="12" max="15" width="11.21875" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1716,28 +1722,31 @@
         <v>7</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1750,38 +1759,39 @@
       <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="P3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1794,38 +1804,41 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10">
         <v>196</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>10</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="14">
+      <c r="K4" s="11">
         <v>40</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>-100</v>
       </c>
@@ -1838,30 +1851,33 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="7"/>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="10"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="4"/>
-      <c r="K5">
+      <c r="J5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="L5">
         <v>-100</v>
       </c>
-      <c r="L5" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M5" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>100</v>
       </c>
@@ -1874,30 +1890,33 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="4"/>
-      <c r="K6">
+      <c r="J6" s="7"/>
+      <c r="K6" s="4"/>
+      <c r="L6">
         <v>100</v>
       </c>
-      <c r="L6" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M6" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>-1000</v>
       </c>
@@ -1910,30 +1929,33 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="7"/>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="4"/>
-      <c r="K7">
+      <c r="J7" s="7"/>
+      <c r="K7" s="4"/>
+      <c r="L7">
         <v>-1000</v>
       </c>
-      <c r="L7" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M7" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1946,30 +1968,33 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="4"/>
-      <c r="K8">
+      <c r="J8" s="7"/>
+      <c r="K8" s="4"/>
+      <c r="L8">
         <v>1000</v>
       </c>
-      <c r="L8" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M8" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>-10000</v>
       </c>
@@ -1982,30 +2007,33 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="7"/>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
-      <c r="K9">
+      <c r="J9" s="7"/>
+      <c r="K9" s="4"/>
+      <c r="L9">
         <v>-10000</v>
       </c>
-      <c r="L9" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M9" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>10000</v>
       </c>
@@ -2018,30 +2046,33 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="10"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="4"/>
-      <c r="K10">
+      <c r="J10" s="7"/>
+      <c r="K10" s="4"/>
+      <c r="L10">
         <v>10000</v>
       </c>
-      <c r="L10" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M10" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -2054,30 +2085,33 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="10">
+        <v>15</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="4"/>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J11" s="7"/>
+      <c r="K11" s="4"/>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>-100</v>
       </c>
@@ -2090,30 +2124,33 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="4"/>
-      <c r="K12">
+      <c r="J12" s="7"/>
+      <c r="K12" s="4"/>
+      <c r="L12">
         <v>-100</v>
       </c>
-      <c r="L12" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M12" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>100</v>
       </c>
@@ -2126,30 +2163,33 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="10"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-      <c r="K13">
+      <c r="J13" s="7"/>
+      <c r="K13" s="4"/>
+      <c r="L13">
         <v>100</v>
       </c>
-      <c r="L13" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M13" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>-1000</v>
       </c>
@@ -2162,30 +2202,33 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-      <c r="K14">
+      <c r="J14" s="7"/>
+      <c r="K14" s="4"/>
+      <c r="L14">
         <v>-1000</v>
       </c>
-      <c r="L14" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M14" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1000</v>
       </c>
@@ -2198,30 +2241,33 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="4"/>
-      <c r="K15">
+      <c r="J15" s="7"/>
+      <c r="K15" s="4"/>
+      <c r="L15">
         <v>1000</v>
       </c>
-      <c r="L15" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M15" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>-10000</v>
       </c>
@@ -2234,30 +2280,33 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="10"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="4"/>
-      <c r="K16">
+      <c r="J16" s="7"/>
+      <c r="K16" s="4"/>
+      <c r="L16">
         <v>-10000</v>
       </c>
-      <c r="L16" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M16" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>10000</v>
       </c>
@@ -2270,30 +2319,33 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="10"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="4"/>
-      <c r="K17">
+      <c r="J17" s="7"/>
+      <c r="K17" s="4"/>
+      <c r="L17">
         <v>10000</v>
       </c>
-      <c r="L17" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M17" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0</v>
       </c>
@@ -2306,30 +2358,33 @@
       <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="10"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="4"/>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J18" s="7"/>
+      <c r="K18" s="4"/>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>-100</v>
       </c>
@@ -2342,30 +2397,33 @@
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="4"/>
-      <c r="K19">
+      <c r="J19" s="7"/>
+      <c r="K19" s="4"/>
+      <c r="L19">
         <v>-100</v>
       </c>
-      <c r="L19" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M19" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>100</v>
       </c>
@@ -2378,30 +2436,33 @@
       <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="7"/>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="10"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="4"/>
-      <c r="K20">
+      <c r="J20" s="7"/>
+      <c r="K20" s="4"/>
+      <c r="L20">
         <v>100</v>
       </c>
-      <c r="L20" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M20" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>-1000</v>
       </c>
@@ -2414,30 +2475,33 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="7"/>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="10"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="4"/>
-      <c r="K21">
+      <c r="J21" s="7"/>
+      <c r="K21" s="4"/>
+      <c r="L21">
         <v>-1000</v>
       </c>
-      <c r="L21" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M21" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1000</v>
       </c>
@@ -2450,30 +2514,33 @@
       <c r="E22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="10"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="4"/>
-      <c r="K22">
+      <c r="J22" s="7"/>
+      <c r="K22" s="4"/>
+      <c r="L22">
         <v>1000</v>
       </c>
-      <c r="L22" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M22" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>-10000</v>
       </c>
@@ -2486,30 +2553,33 @@
       <c r="E23" s="4">
         <v>0</v>
       </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="7"/>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="10"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="4"/>
-      <c r="K23">
+      <c r="J23" s="7"/>
+      <c r="K23" s="4"/>
+      <c r="L23">
         <v>-10000</v>
       </c>
-      <c r="L23" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M23" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>10000</v>
       </c>
@@ -2522,32 +2592,35 @@
       <c r="E24" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="13">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="10"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="4"/>
-      <c r="K24">
+      <c r="J24" s="7"/>
+      <c r="K24" s="4"/>
+      <c r="L24">
         <v>10000</v>
       </c>
-      <c r="L24" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="13">
+      <c r="M24" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/Phase 2 experiments/Experiments.xlsx
+++ b/documentation/Phase 2 experiments/Experiments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V\Documents\School\Project 2\Github\documentation\Phase 2 experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebruiker\Documents\Uni\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A190E3-661D-4F27-AEC7-3700DE5F73D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426CA56-7971-4C84-A727-DEDBD8CC373F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Loop" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>x</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>Landing Position (m)</t>
-  </si>
-  <si>
-    <t>With wind ?</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -191,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -202,6 +196,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -218,15 +221,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFA795-07D1-4DA6-81B9-DD5CB576DC0E}">
   <dimension ref="C2:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,12 +561,12 @@
         <v>7</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="20"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
@@ -593,7 +589,7 @@
       <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -602,7 +598,7 @@
       <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -631,7 +627,7 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="13">
         <v>196</v>
       </c>
       <c r="I4" s="2">
@@ -640,20 +636,20 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="14">
         <v>40</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" s="4">
-        <v>1200000</v>
+        <v>-5.3029999999999999</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" s="4">
-        <v>0</v>
+        <v>-0.14099999999999999</v>
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.3">
@@ -667,23 +663,31 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2">
+        <v>41</v>
+      </c>
+      <c r="K5" s="4">
+        <v>40</v>
+      </c>
       <c r="L5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
-        <v>1200000</v>
+        <v>-42.14</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <v>0</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.3">
@@ -697,23 +701,31 @@
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="4"/>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N6">
+        <v>-5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-240.2</v>
+      </c>
+      <c r="N6" s="13">
         <v>0</v>
       </c>
       <c r="O6" s="4">
-        <v>0</v>
+        <v>-5.0019999999999998</v>
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.3">
@@ -727,28 +739,36 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="4"/>
+        <v>-10</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
       <c r="L7">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
-        <v>1200000</v>
+        <v>-60.1</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+        <v>-10.000999999999999</v>
+      </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -762,23 +782,31 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="4"/>
+        <v>-25</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
       <c r="L8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4">
-        <v>1200000</v>
+        <v>-9.64</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" s="4">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="2"/>
@@ -796,23 +824,31 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4"/>
+        <v>-50</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
       <c r="L9">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4">
-        <v>1200000</v>
+        <v>-2.42</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" s="4">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="Q9" s="7"/>
     </row>
@@ -821,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -829,21 +865,29 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="4"/>
+      <c r="H10" s="21">
+        <v>179</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2">
+        <v>18</v>
+      </c>
+      <c r="K10" s="22">
+        <v>20</v>
+      </c>
       <c r="L10">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4">
-        <v>1200000</v>
+        <v>-8.6289999999999996</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" s="4">
-        <v>0</v>
+        <v>-0.129</v>
       </c>
       <c r="Q10" s="7"/>
     </row>
@@ -852,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -860,21 +904,29 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="4"/>
+      <c r="H11" s="13">
+        <v>160</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <v>1200000</v>
+        <v>-10.824999999999999</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <v>0</v>
+        <v>-0.115</v>
       </c>
       <c r="Q11" s="7"/>
     </row>
@@ -883,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -891,21 +943,29 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="4"/>
+      <c r="H12" s="13">
+        <v>138</v>
+      </c>
+      <c r="I12" s="2">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2">
+        <v>18</v>
+      </c>
+      <c r="K12" s="4">
+        <v>20</v>
+      </c>
       <c r="L12">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
-        <v>1200000</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" s="4">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Q12" s="7"/>
     </row>
@@ -914,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>1200000</v>
+        <v>400000</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -922,21 +982,29 @@
       <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="4"/>
+      <c r="H13" s="13">
+        <v>113</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2">
+        <v>38</v>
+      </c>
+      <c r="K13" s="4">
+        <v>20</v>
+      </c>
       <c r="L13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M13" s="4">
-        <v>1200000</v>
+        <v>-3.3620000000000001</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <v>0</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="Q13" s="7"/>
     </row>
@@ -945,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>1200000</v>
+        <v>200000</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -953,335 +1021,143 @@
       <c r="G14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="4"/>
+      <c r="H14" s="13">
+        <v>80</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2">
+        <v>30</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
       <c r="L14">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
-        <v>1200000</v>
+        <v>-5.593</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" s="4">
-        <v>0</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
-      <c r="L15">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
+      <c r="M15" s="4"/>
+      <c r="O15" s="4"/>
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="4"/>
-      <c r="L16">
-        <v>-10000</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
+      <c r="M16" s="4"/>
+      <c r="O16" s="4"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10"/>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="4"/>
-      <c r="L17">
-        <v>10000</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
+      <c r="M17" s="4"/>
+      <c r="O17" s="4"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10"/>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="4"/>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
+      <c r="M18" s="4"/>
+      <c r="O18" s="4"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10"/>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="4"/>
-      <c r="L19">
-        <v>-100</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
+      <c r="M19" s="4"/>
+      <c r="O19" s="4"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10"/>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="4"/>
-      <c r="L20">
-        <v>100</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
+      <c r="M20" s="4"/>
+      <c r="O20" s="4"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10"/>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="4"/>
-      <c r="L21">
-        <v>-1000</v>
-      </c>
-      <c r="M21" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
+      <c r="M21" s="4"/>
+      <c r="O21" s="4"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10"/>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="4"/>
-      <c r="L22">
-        <v>1000</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
+      <c r="M22" s="4"/>
+      <c r="O22" s="4"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10"/>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="4"/>
-      <c r="L23">
-        <v>-10000</v>
-      </c>
-      <c r="M23" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
+      <c r="M23" s="4"/>
+      <c r="O23" s="4"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10"/>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="4"/>
-      <c r="L24">
-        <v>10000</v>
-      </c>
-      <c r="M24" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
+      <c r="M24" s="4"/>
+      <c r="O24" s="4"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1292,23 +1168,23 @@
       <c r="O25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:17" x14ac:dyDescent="0.3">
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:17" x14ac:dyDescent="0.3">
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:17" x14ac:dyDescent="0.3">
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:17" x14ac:dyDescent="0.3">
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:17" x14ac:dyDescent="0.3">
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1320,20 +1196,20 @@
       <c r="P31" s="7"/>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D33" s="17"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="17"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="17"/>
+      <c r="O33" s="20"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="13"/>
+      <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D34" s="7"/>
@@ -1699,21 +1575,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CB71-A509-4AC5-AC8E-6056CE32F9C4}">
-  <dimension ref="B2:P24"/>
+  <dimension ref="B2:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" customWidth="1"/>
-    <col min="12" max="15" width="11.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="11" max="14" width="11.21875" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1722,31 +1598,28 @@
         <v>7</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="6" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="6" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="12" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1759,39 +1632,38 @@
       <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5" t="s">
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="O3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1804,41 +1676,38 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
         <v>196</v>
       </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
       <c r="I4" s="2">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="11">
+      <c r="J4" s="14">
         <v>40</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>-100</v>
       </c>
@@ -1851,33 +1720,30 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="4"/>
-      <c r="L5">
+      <c r="J5" s="4"/>
+      <c r="K5">
         <v>-100</v>
       </c>
-      <c r="M5" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L5" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>100</v>
       </c>
@@ -1890,33 +1756,30 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="10"/>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="4"/>
-      <c r="L6">
+      <c r="J6" s="4"/>
+      <c r="K6">
         <v>100</v>
       </c>
-      <c r="M6" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L6" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>-1000</v>
       </c>
@@ -1929,33 +1792,30 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="4"/>
-      <c r="L7">
+      <c r="J7" s="4"/>
+      <c r="K7">
         <v>-1000</v>
       </c>
-      <c r="M7" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L7" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1968,33 +1828,30 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="10"/>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="4"/>
-      <c r="L8">
+      <c r="J8" s="4"/>
+      <c r="K8">
         <v>1000</v>
       </c>
-      <c r="M8" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L8" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>-10000</v>
       </c>
@@ -2007,33 +1864,30 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="10"/>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4"/>
-      <c r="L9">
+      <c r="J9" s="4"/>
+      <c r="K9">
         <v>-10000</v>
       </c>
-      <c r="M9" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L9" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>10000</v>
       </c>
@@ -2046,33 +1900,30 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="10"/>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="4"/>
-      <c r="L10">
+      <c r="J10" s="4"/>
+      <c r="K10">
         <v>10000</v>
       </c>
-      <c r="M10" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L10" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -2085,33 +1936,30 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="10">
-        <v>15</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10"/>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="4"/>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J11" s="4"/>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>-100</v>
       </c>
@@ -2124,33 +1972,30 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="10"/>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="4"/>
-      <c r="L12">
+      <c r="J12" s="4"/>
+      <c r="K12">
         <v>-100</v>
       </c>
-      <c r="M12" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L12" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>100</v>
       </c>
@@ -2163,33 +2008,30 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="10"/>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="4"/>
-      <c r="L13">
+      <c r="J13" s="4"/>
+      <c r="K13">
         <v>100</v>
       </c>
-      <c r="M13" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L13" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>-1000</v>
       </c>
@@ -2202,33 +2044,30 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="10"/>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="4"/>
-      <c r="L14">
+      <c r="J14" s="4"/>
+      <c r="K14">
         <v>-1000</v>
       </c>
-      <c r="M14" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L14" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1000</v>
       </c>
@@ -2241,33 +2080,30 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="10"/>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="4"/>
-      <c r="L15">
+      <c r="J15" s="4"/>
+      <c r="K15">
         <v>1000</v>
       </c>
-      <c r="M15" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L15" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>-10000</v>
       </c>
@@ -2280,33 +2116,30 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="10"/>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="4"/>
-      <c r="L16">
+      <c r="J16" s="4"/>
+      <c r="K16">
         <v>-10000</v>
       </c>
-      <c r="M16" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L16" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>10000</v>
       </c>
@@ -2319,33 +2152,30 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="10"/>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="4"/>
-      <c r="L17">
+      <c r="J17" s="4"/>
+      <c r="K17">
         <v>10000</v>
       </c>
-      <c r="M17" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L17" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0</v>
       </c>
@@ -2358,33 +2188,30 @@
       <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="10"/>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="4"/>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J18" s="4"/>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>-100</v>
       </c>
@@ -2397,33 +2224,30 @@
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="10"/>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="4"/>
-      <c r="L19">
+      <c r="J19" s="4"/>
+      <c r="K19">
         <v>-100</v>
       </c>
-      <c r="M19" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L19" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>100</v>
       </c>
@@ -2436,33 +2260,30 @@
       <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="10"/>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="4"/>
-      <c r="L20">
+      <c r="J20" s="4"/>
+      <c r="K20">
         <v>100</v>
       </c>
-      <c r="M20" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L20" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>-1000</v>
       </c>
@@ -2475,33 +2296,30 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="10"/>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="4"/>
-      <c r="L21">
+      <c r="J21" s="4"/>
+      <c r="K21">
         <v>-1000</v>
       </c>
-      <c r="M21" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L21" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1000</v>
       </c>
@@ -2514,33 +2332,30 @@
       <c r="E22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="10"/>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="4"/>
-      <c r="L22">
+      <c r="J22" s="4"/>
+      <c r="K22">
         <v>1000</v>
       </c>
-      <c r="M22" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L22" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>-10000</v>
       </c>
@@ -2553,33 +2368,30 @@
       <c r="E23" s="4">
         <v>0</v>
       </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="10"/>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="4"/>
-      <c r="L23">
+      <c r="J23" s="4"/>
+      <c r="K23">
         <v>-10000</v>
       </c>
-      <c r="M23" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L23" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>10000</v>
       </c>
@@ -2592,35 +2404,32 @@
       <c r="E24" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="10"/>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="4"/>
-      <c r="L24">
+      <c r="J24" s="4"/>
+      <c r="K24">
         <v>10000</v>
       </c>
-      <c r="M24" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
+      <c r="L24" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/Phase 2 experiments/Experiments.xlsx
+++ b/documentation/Phase 2 experiments/Experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebruiker\Documents\Uni\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426CA56-7971-4C84-A727-DEDBD8CC373F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D216AC7-4E37-4F60-883B-C7DE30ABCA95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>x</t>
   </si>
@@ -83,12 +83,18 @@
   <si>
     <t>Landing Position (m)</t>
   </si>
+  <si>
+    <t>Different velocities</t>
+  </si>
+  <si>
+    <t>Different altitudes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +104,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -185,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -196,15 +210,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -223,6 +228,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFA795-07D1-4DA6-81B9-DD5CB576DC0E}">
-  <dimension ref="C2:T55"/>
+  <dimension ref="B2:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +567,7 @@
     <col min="17" max="17" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -561,12 +576,12 @@
         <v>7</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
@@ -576,7 +591,7 @@
       </c>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +604,7 @@
       <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -598,7 +613,7 @@
       <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -614,7 +629,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -627,7 +645,7 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <v>196</v>
       </c>
       <c r="I4" s="2">
@@ -636,7 +654,7 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="11">
         <v>40</v>
       </c>
       <c r="L4">
@@ -652,7 +670,7 @@
         <v>-0.14099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>0</v>
       </c>
@@ -665,7 +683,7 @@
       <c r="G5" s="4">
         <v>-1</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="10">
         <v>13</v>
       </c>
       <c r="I5" s="2">
@@ -690,7 +708,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>0</v>
       </c>
@@ -715,20 +733,20 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="10">
         <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>-240.2</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="10">
         <v>0</v>
       </c>
       <c r="O6" s="4">
         <v>-5.0019999999999998</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>0</v>
       </c>
@@ -741,7 +759,7 @@
       <c r="G7" s="4">
         <v>-10</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <v>1</v>
       </c>
       <c r="I7" s="2">
@@ -765,12 +783,12 @@
       <c r="O7" s="4">
         <v>-10.000999999999999</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
       <c r="D8">
         <v>0</v>
@@ -784,7 +802,7 @@
       <c r="G8" s="4">
         <v>-25</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="10">
         <v>0</v>
       </c>
       <c r="I8" s="2">
@@ -813,7 +831,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>0</v>
       </c>
@@ -826,7 +844,7 @@
       <c r="G9" s="4">
         <v>-50</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="I9" s="2">
@@ -852,7 +870,10 @@
       </c>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -865,7 +886,7 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>179</v>
       </c>
       <c r="I10" s="2">
@@ -874,7 +895,7 @@
       <c r="J10" s="2">
         <v>18</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="19">
         <v>20</v>
       </c>
       <c r="L10">
@@ -891,7 +912,7 @@
       </c>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>0</v>
       </c>
@@ -904,7 +925,7 @@
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="10">
         <v>160</v>
       </c>
       <c r="I11" s="2">
@@ -930,7 +951,7 @@
       </c>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>0</v>
       </c>
@@ -943,7 +964,7 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="10">
         <v>138</v>
       </c>
       <c r="I12" s="2">
@@ -969,7 +990,7 @@
       </c>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>0</v>
       </c>
@@ -982,7 +1003,7 @@
       <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="10">
         <v>113</v>
       </c>
       <c r="I13" s="2">
@@ -1008,7 +1029,7 @@
       </c>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>0</v>
       </c>
@@ -1021,7 +1042,7 @@
       <c r="G14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>80</v>
       </c>
       <c r="I14" s="2">
@@ -1047,10 +1068,10 @@
       </c>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
@@ -1058,10 +1079,10 @@
       <c r="O15" s="4"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="4"/>
@@ -1072,7 +1093,7 @@
     <row r="17" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="4"/>
@@ -1083,8 +1104,7 @@
     <row r="18" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="10"/>
       <c r="J18" s="7"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -1094,9 +1114,7 @@
     <row r="19" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="H19" s="10"/>
       <c r="K19" s="4"/>
       <c r="M19" s="4"/>
       <c r="O19" s="4"/>
@@ -1105,9 +1123,7 @@
     <row r="20" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="H20" s="10"/>
       <c r="K20" s="4"/>
       <c r="M20" s="4"/>
       <c r="O20" s="4"/>
@@ -1116,9 +1132,7 @@
     <row r="21" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="H21" s="10"/>
       <c r="K21" s="4"/>
       <c r="M21" s="4"/>
       <c r="O21" s="4"/>
@@ -1127,9 +1141,7 @@
     <row r="22" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="H22" s="10"/>
       <c r="K22" s="4"/>
       <c r="M22" s="4"/>
       <c r="O22" s="4"/>
@@ -1138,9 +1150,7 @@
     <row r="23" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="H23" s="10"/>
       <c r="K23" s="4"/>
       <c r="M23" s="4"/>
       <c r="O23" s="4"/>
@@ -1148,10 +1158,8 @@
     </row>
     <row r="24" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
       <c r="K24" s="4"/>
       <c r="M24" s="4"/>
       <c r="O24" s="4"/>
@@ -1162,6 +1170,8 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -1169,15 +1179,23 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
       <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="5:17" x14ac:dyDescent="0.3">
@@ -1196,20 +1214,20 @@
       <c r="P31" s="7"/>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D33" s="20"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="20"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="20"/>
+      <c r="O33" s="17"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="16"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D34" s="7"/>
@@ -1598,15 +1616,15 @@
         <v>7</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
@@ -1615,7 +1633,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1632,10 +1650,10 @@
       <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1644,7 +1662,7 @@
       <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1659,7 +1677,7 @@
       <c r="N3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1676,10 +1694,10 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
         <v>196</v>
       </c>
       <c r="H4" s="2">
@@ -1688,7 +1706,7 @@
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <v>40</v>
       </c>
       <c r="K4">
@@ -1703,7 +1721,7 @@
       <c r="N4" s="4">
         <v>0</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1720,10 +1738,10 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13"/>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
@@ -1739,7 +1757,7 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1756,10 +1774,10 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="4"/>
@@ -1775,7 +1793,7 @@
       <c r="N6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1792,10 +1810,10 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13"/>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="4"/>
@@ -1811,7 +1829,7 @@
       <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1828,10 +1846,10 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13"/>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="4"/>
@@ -1847,7 +1865,7 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1864,10 +1882,10 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13"/>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="4"/>
@@ -1883,7 +1901,7 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1900,10 +1918,10 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13"/>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="4"/>
@@ -1919,7 +1937,7 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1936,10 +1954,10 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13"/>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="4"/>
@@ -1955,7 +1973,7 @@
       <c r="N11" s="4">
         <v>0</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1972,10 +1990,10 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13"/>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="4"/>
@@ -1991,7 +2009,7 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2008,10 +2026,10 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13"/>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="4"/>
@@ -2027,7 +2045,7 @@
       <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2044,10 +2062,10 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13"/>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="4"/>
@@ -2063,7 +2081,7 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2080,10 +2098,10 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13"/>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="4"/>
@@ -2099,7 +2117,7 @@
       <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2116,10 +2134,10 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13"/>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="4"/>
@@ -2135,7 +2153,7 @@
       <c r="N16" s="4">
         <v>0</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2152,10 +2170,10 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13"/>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="4"/>
@@ -2171,7 +2189,7 @@
       <c r="N17" s="4">
         <v>0</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2188,10 +2206,10 @@
       <c r="E18" s="4">
         <v>0</v>
       </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13"/>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="4"/>
@@ -2207,7 +2225,7 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2224,10 +2242,10 @@
       <c r="E19" s="4">
         <v>0</v>
       </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13"/>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="4"/>
@@ -2243,7 +2261,7 @@
       <c r="N19" s="4">
         <v>0</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2260,10 +2278,10 @@
       <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13"/>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="4"/>
@@ -2279,7 +2297,7 @@
       <c r="N20" s="4">
         <v>0</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2296,10 +2314,10 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13"/>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="4"/>
@@ -2315,7 +2333,7 @@
       <c r="N21" s="4">
         <v>0</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2332,10 +2350,10 @@
       <c r="E22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13"/>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="4"/>
@@ -2351,7 +2369,7 @@
       <c r="N22" s="4">
         <v>0</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2368,10 +2386,10 @@
       <c r="E23" s="4">
         <v>0</v>
       </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13"/>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="4"/>
@@ -2387,7 +2405,7 @@
       <c r="N23" s="4">
         <v>0</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2404,10 +2422,10 @@
       <c r="E24" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="13">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13"/>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="4"/>
@@ -2423,7 +2441,7 @@
       <c r="N24" s="4">
         <v>0</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="10">
         <v>0</v>
       </c>
     </row>

--- a/documentation/Phase 2 experiments/Experiments.xlsx
+++ b/documentation/Phase 2 experiments/Experiments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebruiker\Documents\Uni\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V\Documents\School\Project 2\Github\documentation\Phase 2 experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D216AC7-4E37-4F60-883B-C7DE30ABCA95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B604B57-05B1-4DC7-B33C-1511056D5E58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
+    <workbookView xWindow="3468" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Loop" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
   <si>
     <t>x</t>
   </si>
@@ -84,6 +84,33 @@
     <t>Landing Position (m)</t>
   </si>
   <si>
+    <t>With wind ?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>modified angle</t>
+  </si>
+  <si>
+    <t>modified x-position</t>
+  </si>
+  <si>
+    <t>modified y-position</t>
+  </si>
+  <si>
+    <t>modified x-velocity</t>
+  </si>
+  <si>
+    <t>modified y-velocity</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Different velocities</t>
   </si>
   <si>
@@ -94,6 +121,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -217,18 +247,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -238,6 +267,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFA795-07D1-4DA6-81B9-DD5CB576DC0E}">
   <dimension ref="B2:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,12 +607,12 @@
         <v>7</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
@@ -630,8 +661,8 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
-        <v>17</v>
+      <c r="B4" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -783,10 +814,10 @@
       <c r="O7" s="4">
         <v>-10.000999999999999</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
@@ -871,8 +902,8 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
-        <v>18</v>
+      <c r="B10" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -886,7 +917,7 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="24">
         <v>179</v>
       </c>
       <c r="I10" s="2">
@@ -1214,20 +1245,20 @@
       <c r="P31" s="7"/>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D33" s="17"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="17"/>
+      <c r="O33" s="16"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="13"/>
+      <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D34" s="7"/>
@@ -1593,21 +1624,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CB71-A509-4AC5-AC8E-6056CE32F9C4}">
-  <dimension ref="B2:O24"/>
+  <dimension ref="A2:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="11" max="14" width="11.21875" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" customWidth="1"/>
+    <col min="12" max="15" width="11.21875" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1619,25 +1651,28 @@
       <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,38 +1685,39 @@
       <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1697,35 +1733,41 @@
       <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
-        <v>196</v>
-      </c>
-      <c r="H4" s="2">
-        <v>10</v>
+      <c r="G4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2">
+        <v>33</v>
+      </c>
+      <c r="K4" s="11">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
       <c r="B5">
         <v>-100</v>
       </c>
@@ -1741,27 +1783,38 @@
       <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="4"/>
-      <c r="K5">
-        <v>-100</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>3.25</v>
+      </c>
+      <c r="M5" s="4">
+        <v>-1.635</v>
+      </c>
+      <c r="N5">
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="O5" s="4">
+        <v>-1.4159999999999999</v>
+      </c>
+      <c r="P5" s="10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>100</v>
       </c>
@@ -1777,27 +1830,38 @@
       <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="4"/>
-      <c r="K6">
-        <v>100</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>30</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>4.8440000000000003</v>
+      </c>
+      <c r="M6" s="4">
+        <v>-3.73E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.9</v>
+      </c>
+      <c r="O6" s="4">
+        <v>-0.93600000000000005</v>
+      </c>
+      <c r="P6" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>-1000</v>
       </c>
@@ -1813,27 +1877,38 @@
       <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="4"/>
-      <c r="K7">
-        <v>-1000</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>-3.8479999999999999</v>
+      </c>
+      <c r="M7" s="4">
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="O7" s="4">
+        <v>-1.0609999999999999</v>
+      </c>
+      <c r="P7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1849,27 +1924,38 @@
       <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="4"/>
-      <c r="K8">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>9.6739999999999995</v>
+      </c>
+      <c r="M8" s="4">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="N8">
+        <v>-0.81299999999999994</v>
+      </c>
+      <c r="O8" s="4">
+        <v>-1.18</v>
+      </c>
+      <c r="P8" s="10">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>-10000</v>
       </c>
@@ -1885,27 +1971,38 @@
       <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
-      <c r="K9">
-        <v>-10000</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
+        <v>29</v>
+      </c>
+      <c r="K9" s="4">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <v>8.2430000000000003</v>
+      </c>
+      <c r="M9" s="4">
+        <v>-4.6399999999999997E-2</v>
+      </c>
+      <c r="N9">
+        <v>-0.66100000000000003</v>
+      </c>
+      <c r="O9" s="4">
+        <v>-0.52500000000000002</v>
+      </c>
+      <c r="P9" s="10">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>10000</v>
       </c>
@@ -1921,533 +2018,837 @@
       <c r="F10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="4"/>
-      <c r="K10">
+      <c r="G10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2">
+        <v>29</v>
+      </c>
+      <c r="K10" s="4">
+        <v>58</v>
+      </c>
+      <c r="L10">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="M10" s="4">
+        <v>-0.70399999999999996</v>
+      </c>
+      <c r="N10">
+        <v>-1.0529999999999999</v>
+      </c>
+      <c r="O10" s="4">
+        <v>-0.98499999999999999</v>
+      </c>
+      <c r="P10" s="10">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>12000</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="4"/>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>120000</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="4"/>
+      <c r="L12">
+        <v>-10000</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2">
+        <v>33</v>
+      </c>
+      <c r="K13" s="11">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="4"/>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>15</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2">
+        <v>29</v>
+      </c>
+      <c r="K15" s="4">
+        <v>57</v>
+      </c>
+      <c r="L15">
+        <v>4.9130000000000003</v>
+      </c>
+      <c r="M15" s="18">
+        <v>-1.66</v>
+      </c>
+      <c r="N15">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="O15" s="4">
+        <v>-1.429</v>
+      </c>
+      <c r="P15" s="10">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>30</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2">
+        <v>30</v>
+      </c>
+      <c r="K16" s="4">
+        <v>17</v>
+      </c>
+      <c r="L16">
+        <v>-2.1320000000000001</v>
+      </c>
+      <c r="M16" s="4">
+        <v>-2.13E-4</v>
+      </c>
+      <c r="N16">
+        <v>-0.66900000000000004</v>
+      </c>
+      <c r="O16" s="4">
+        <v>-1.399</v>
+      </c>
+      <c r="P16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>45</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="10">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2">
+        <v>30</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="M17" s="4">
+        <v>-0.64700000000000002</v>
+      </c>
+      <c r="N17">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="O17" s="4">
+        <v>-1.2490000000000001</v>
+      </c>
+      <c r="P17" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>60</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2">
+        <v>29</v>
+      </c>
+      <c r="K18" s="4">
+        <v>32</v>
+      </c>
+      <c r="L18">
+        <v>-9.7279999999999998</v>
+      </c>
+      <c r="M18" s="4">
+        <v>-0.53300000000000003</v>
+      </c>
+      <c r="N18">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-1.1040000000000001</v>
+      </c>
+      <c r="P18" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="4"/>
+      <c r="L19">
+        <v>-100</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="4"/>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D21">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="4"/>
+      <c r="L21">
+        <v>-1000</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D22">
+        <v>-1000</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="4"/>
+      <c r="L22">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>100</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="4"/>
+      <c r="L23">
+        <v>-10000</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="4"/>
+      <c r="L24">
         <v>10000</v>
       </c>
-      <c r="L10" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="4"/>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12">
+      <c r="M24" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
         <v>-100</v>
       </c>
-      <c r="C12" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="4"/>
-      <c r="K12">
-        <v>-100</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13">
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="K25" s="4"/>
+      <c r="M25" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="K26" s="4"/>
+      <c r="M26" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="K27" s="4"/>
+      <c r="M27" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>100</v>
       </c>
-      <c r="C13" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-      <c r="K13">
+      <c r="C28" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="K28" s="4"/>
+      <c r="M28" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="D29">
         <v>100</v>
       </c>
-      <c r="L13" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>-1000</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-      <c r="K14">
-        <v>-1000</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="4"/>
-      <c r="K15">
-        <v>1000</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>-10000</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="4"/>
-      <c r="K16">
-        <v>-10000</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>10000</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="4"/>
-      <c r="K17">
-        <v>10000</v>
-      </c>
-      <c r="L17" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="4"/>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>-100</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="4"/>
-      <c r="K19">
-        <v>-100</v>
-      </c>
-      <c r="L19" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="K29" s="4"/>
+      <c r="M29" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
         <v>100</v>
       </c>
-      <c r="C20" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="4"/>
-      <c r="K20">
-        <v>100</v>
-      </c>
-      <c r="L20" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>-1000</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="4"/>
-      <c r="K21">
-        <v>-1000</v>
-      </c>
-      <c r="L21" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>1000</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="4"/>
-      <c r="K22">
-        <v>1000</v>
-      </c>
-      <c r="L22" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>-10000</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="4"/>
-      <c r="K23">
-        <v>-10000</v>
-      </c>
-      <c r="L23" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>10000</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="4"/>
-      <c r="K24">
-        <v>10000</v>
-      </c>
-      <c r="L24" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="10">
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="K30" s="4"/>
+      <c r="M30" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="K31" s="4"/>
+      <c r="M31" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O31" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/Phase 2 experiments/Experiments.xlsx
+++ b/documentation/Phase 2 experiments/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V\Documents\School\Project 2\Github\documentation\Phase 2 experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B604B57-05B1-4DC7-B33C-1511056D5E58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232DB9D3-AA95-4C40-8F39-E31CA8D1521D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3468" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Loop" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>x</t>
   </si>
@@ -108,13 +108,16 @@
     <t>wind</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Different velocities</t>
   </si>
   <si>
     <t>Different altitudes</t>
+  </si>
+  <si>
+    <t>thrusterForce</t>
+  </si>
+  <si>
+    <t>max wind Force</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -258,6 +261,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,8 +272,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFA795-07D1-4DA6-81B9-DD5CB576DC0E}">
   <dimension ref="B2:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,12 +612,12 @@
         <v>7</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
@@ -661,8 +666,8 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
-        <v>26</v>
+      <c r="B4" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -902,8 +907,8 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
-        <v>27</v>
+      <c r="B10" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -917,7 +922,7 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="21">
         <v>179</v>
       </c>
       <c r="I10" s="2">
@@ -1250,10 +1255,10 @@
       <c r="F33" s="16"/>
       <c r="G33" s="7"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
       <c r="M33" s="16"/>
       <c r="N33" s="7"/>
       <c r="O33" s="16"/>
@@ -1624,1232 +1629,1216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CB71-A509-4AC5-AC8E-6056CE32F9C4}">
-  <dimension ref="A2:P31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" customWidth="1"/>
-    <col min="12" max="15" width="11.21875" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="8" width="13.5546875" customWidth="1"/>
+    <col min="13" max="16" width="11.21875" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>15</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>33</v>
       </c>
-      <c r="K4" s="11">
+      <c r="L4" s="11">
         <v>4</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
         <v>-0.94499999999999995</v>
       </c>
-      <c r="P4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-100</v>
       </c>
-      <c r="C5" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="D5" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>15</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>30</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>19</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3.25</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>-1.635</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-0.55700000000000005</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>-1.4159999999999999</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C6">
         <v>100</v>
       </c>
-      <c r="C6" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="D6" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>15</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>30</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4.8440000000000003</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>-3.73E-2</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.9</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>-0.93600000000000005</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C7">
         <v>-1000</v>
       </c>
-      <c r="C7" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="D7" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <v>2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>15</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>30</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>17</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-3.8479999999999999</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>-0.26600000000000001</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.71799999999999997</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="4">
         <v>-1.0609999999999999</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C8">
         <v>1000</v>
       </c>
-      <c r="C8" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="D8" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>15</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>30</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>9</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>9.6739999999999995</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>-0.20300000000000001</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-0.81299999999999994</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>-1.18</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <v>-7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9">
         <v>-10000</v>
       </c>
-      <c r="C9" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="D9" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>15</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>29</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>29</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>8.2430000000000003</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>-4.6399999999999997E-2</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-0.66100000000000003</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>-0.52500000000000002</v>
       </c>
-      <c r="P9" s="10">
+      <c r="Q9" s="10">
         <v>-6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10">
         <v>10000</v>
       </c>
-      <c r="C10" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="D10" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <v>2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>15</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>29</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>58</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3.0379999999999998</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>-0.70399999999999996</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-1.0529999999999999</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>-0.98499999999999999</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <v>-4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>12000</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="4"/>
-      <c r="L11">
+      <c r="K11" s="7"/>
+      <c r="L11" s="4"/>
+      <c r="M11">
         <v>1000</v>
       </c>
-      <c r="M11" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="N11" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <v>120000</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="4"/>
-      <c r="L12">
+      <c r="K12" s="7"/>
+      <c r="L12" s="4"/>
+      <c r="M12">
         <v>-10000</v>
       </c>
-      <c r="M12" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="19">
-        <v>1200000</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="N12" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
         <v>2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>15</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>33</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="4">
         <v>4</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
         <v>-0.94499999999999995</v>
       </c>
-      <c r="P13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
         <v>12000000</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="4"/>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K14" s="7"/>
+      <c r="L14" s="4"/>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
         <v>15</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
         <v>2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>29</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>57</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4.9130000000000003</v>
       </c>
-      <c r="M15" s="18">
+      <c r="N15" s="18">
         <v>-1.66</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.71499999999999997</v>
       </c>
-      <c r="O15" s="4">
+      <c r="P15" s="4">
         <v>-1.429</v>
       </c>
-      <c r="P15" s="10">
+      <c r="Q15" s="10">
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
         <v>30</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
         <v>2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>15</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>30</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>17</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-2.1320000000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>-2.13E-4</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-0.66900000000000004</v>
       </c>
-      <c r="O16" s="4">
+      <c r="P16" s="4">
         <v>-1.399</v>
       </c>
-      <c r="P16" s="10">
+      <c r="Q16" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
         <v>45</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
         <v>2</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>15</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>30</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3.1019999999999999</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>-0.64700000000000002</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.0329999999999999</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>-1.2490000000000001</v>
       </c>
-      <c r="P17" s="10">
+      <c r="Q17" s="10">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
         <v>60</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="10">
         <v>2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>15</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>29</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>32</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-9.7279999999999998</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>-0.53300000000000003</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.71499999999999997</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>-1.1040000000000001</v>
       </c>
-      <c r="P18" s="10">
+      <c r="Q18" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E19">
         <v>100</v>
       </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="4"/>
-      <c r="L19">
+      <c r="K19" s="7"/>
+      <c r="L19" s="4"/>
+      <c r="M19">
         <v>-100</v>
       </c>
-      <c r="M19" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D20">
+      <c r="N19" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E20">
         <v>1000</v>
       </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="4"/>
-      <c r="L20">
+      <c r="K20" s="7"/>
+      <c r="L20" s="4"/>
+      <c r="M20">
         <v>100</v>
       </c>
-      <c r="M20" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D21">
+      <c r="N20" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E21">
         <v>-100</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="4"/>
-      <c r="L21">
+      <c r="K21" s="7"/>
+      <c r="L21" s="4"/>
+      <c r="M21">
         <v>-1000</v>
       </c>
-      <c r="M21" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D22">
+      <c r="N21" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E22">
         <v>-1000</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="4"/>
-      <c r="L22">
+      <c r="K22" s="7"/>
+      <c r="L22" s="4"/>
+      <c r="M22">
         <v>1000</v>
       </c>
-      <c r="M22" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N22" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
         <v>100</v>
       </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="4"/>
-      <c r="L23">
+      <c r="K23" s="7"/>
+      <c r="L23" s="4"/>
+      <c r="M23">
         <v>-10000</v>
       </c>
-      <c r="M23" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="N23" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <v>1000</v>
       </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="4"/>
-      <c r="L24">
+      <c r="K24" s="7"/>
+      <c r="L24" s="4"/>
+      <c r="M24">
         <v>10000</v>
       </c>
-      <c r="M24" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="N24" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
         <v>-100</v>
       </c>
-      <c r="F25" s="10">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="K25" s="4"/>
-      <c r="M25" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="I25" s="10"/>
+      <c r="L25" s="4"/>
+      <c r="N25" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
         <v>-1000</v>
       </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="I26" s="10"/>
+      <c r="L26" s="4"/>
+      <c r="N26" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="K27" s="4"/>
-      <c r="M27" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>100</v>
-      </c>
-      <c r="C28" s="19">
-        <v>1200000</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>25</v>
+        <v>2500</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
       </c>
       <c r="H28" s="10"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19">
-        <v>1200000</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>25</v>
+      <c r="I28" s="10"/>
+      <c r="L28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
       </c>
       <c r="H29" s="10"/>
-      <c r="K29" s="4"/>
-      <c r="M29" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="19">
-        <v>1200000</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>100</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>25</v>
+      <c r="I29" s="10"/>
+      <c r="L29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
       </c>
       <c r="H30" s="10"/>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="19">
-        <v>1200000</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>30</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>25</v>
+      <c r="I30" s="10"/>
+      <c r="L30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
       </c>
       <c r="H31" s="10"/>
-      <c r="K31" s="4"/>
-      <c r="M31" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
+      <c r="I31" s="10"/>
+      <c r="L31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19">
+        <v>1200000</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="L32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="P32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/Phase 2 experiments/Experiments.xlsx
+++ b/documentation/Phase 2 experiments/Experiments.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V\Documents\School\Project 2\Github\documentation\Phase 2 experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\TSO\documentation\Phase 2 experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232DB9D3-AA95-4C40-8F39-E31CA8D1521D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{715DD086-ACD7-4858-9E34-CEA6F756B20B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Open Loop" sheetId="1" r:id="rId1"/>
@@ -21,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -119,11 +113,14 @@
   <si>
     <t>max wind Force</t>
   </si>
+  <si>
+    <t>/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -160,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -228,11 +225,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -250,33 +292,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,23 +624,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFA795-07D1-4DA6-81B9-DD5CB576DC0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="16" width="10.88671875" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" customWidth="1"/>
+    <col min="4" max="7" width="10.90625" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" customWidth="1"/>
+    <col min="9" max="12" width="10.6328125" customWidth="1"/>
+    <col min="13" max="16" width="10.90625" customWidth="1"/>
+    <col min="17" max="17" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -612,12 +649,12 @@
         <v>7</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="24"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
@@ -627,7 +664,7 @@
       </c>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,8 +702,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D4">
@@ -706,7 +743,7 @@
         <v>-0.14099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D5">
         <v>0</v>
       </c>
@@ -744,7 +781,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D6">
         <v>0</v>
       </c>
@@ -782,7 +819,7 @@
         <v>-5.0019999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D7">
         <v>0</v>
       </c>
@@ -819,12 +856,12 @@
       <c r="O7" s="4">
         <v>-10.000999999999999</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="C8" s="7"/>
       <c r="D8">
         <v>0</v>
@@ -867,7 +904,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D9">
         <v>0</v>
       </c>
@@ -906,8 +943,8 @@
       </c>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D10">
@@ -922,7 +959,7 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>179</v>
       </c>
       <c r="I10" s="2">
@@ -931,7 +968,7 @@
       <c r="J10" s="2">
         <v>18</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="16">
         <v>20</v>
       </c>
       <c r="L10">
@@ -948,7 +985,7 @@
       </c>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D11">
         <v>0</v>
       </c>
@@ -987,7 +1024,7 @@
       </c>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D12">
         <v>0</v>
       </c>
@@ -1026,7 +1063,7 @@
       </c>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D13">
         <v>0</v>
       </c>
@@ -1065,7 +1102,7 @@
       </c>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D14">
         <v>0</v>
       </c>
@@ -1104,7 +1141,7 @@
       </c>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="10"/>
@@ -1115,7 +1152,7 @@
       <c r="O15" s="4"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="10"/>
@@ -1126,7 +1163,7 @@
       <c r="O16" s="4"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="10"/>
@@ -1137,7 +1174,7 @@
       <c r="O17" s="4"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="10"/>
@@ -1147,7 +1184,7 @@
       <c r="O18" s="4"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="10"/>
@@ -1156,7 +1193,7 @@
       <c r="O19" s="4"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="10"/>
@@ -1165,7 +1202,7 @@
       <c r="O20" s="4"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="10"/>
@@ -1174,7 +1211,7 @@
       <c r="O21" s="4"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="10"/>
@@ -1183,7 +1220,7 @@
       <c r="O22" s="4"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="10"/>
@@ -1192,7 +1229,7 @@
       <c r="O23" s="4"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E24" s="4"/>
       <c r="H24" s="10"/>
       <c r="I24" s="7"/>
@@ -1201,7 +1238,7 @@
       <c r="O24" s="4"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1214,31 +1251,31 @@
       <c r="O25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:17" x14ac:dyDescent="0.35">
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:17" x14ac:dyDescent="0.35">
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:17" x14ac:dyDescent="0.35">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:17" x14ac:dyDescent="0.35">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:17" x14ac:dyDescent="0.35">
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1249,23 +1286,23 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D33" s="16"/>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D33" s="14"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="16"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="14"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="16"/>
+      <c r="O33" s="14"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="17"/>
-    </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="Q33" s="15"/>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -1281,7 +1318,7 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -1297,7 +1334,7 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -1313,7 +1350,7 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -1329,7 +1366,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -1345,7 +1382,7 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -1361,7 +1398,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -1377,7 +1414,7 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -1393,7 +1430,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -1409,7 +1446,7 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1425,7 +1462,7 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -1441,7 +1478,7 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -1457,7 +1494,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -1473,7 +1510,7 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -1489,7 +1526,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -1505,7 +1542,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -1521,7 +1558,7 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -1537,7 +1574,7 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -1553,7 +1590,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -1569,7 +1606,7 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -1585,7 +1622,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -1601,7 +1638,7 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -1628,1211 +1665,1822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51CB71-A509-4AC5-AC8E-6056CE32F9C4}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="8" width="13.5546875" customWidth="1"/>
-    <col min="13" max="16" width="11.21875" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875" customWidth="1"/>
+    <col min="13" max="16" width="11.1796875" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+    <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="6" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="O3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="32">
         <v>2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="24">
         <v>15</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="24">
         <v>33</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="33">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="26">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="P4" s="26">
         <v>-0.94499999999999995</v>
       </c>
-      <c r="Q4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="Q4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22">
         <v>-100</v>
       </c>
-      <c r="D5" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="D5" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="32">
         <v>2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="24">
         <v>15</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="24">
         <v>30</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="26">
         <v>19</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="22">
         <v>3.25</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="26">
         <v>-1.635</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="22">
         <v>-0.55700000000000005</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="26">
         <v>-1.4159999999999999</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="32">
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22">
         <v>100</v>
       </c>
-      <c r="D6" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="D6" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="32">
         <v>2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="24">
         <v>15</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="24">
         <v>30</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="26">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="22">
         <v>4.8440000000000003</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="26">
         <v>-3.73E-2</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="22">
         <v>0.9</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="26">
         <v>-0.93600000000000005</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="32">
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22">
         <v>-1000</v>
       </c>
-      <c r="D7" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="D7" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="32">
         <v>2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="24">
         <v>15</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="24">
         <v>30</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="26">
         <v>17</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="22">
         <v>-3.8479999999999999</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="26">
         <v>-0.26600000000000001</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="22">
         <v>0.71799999999999997</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="26">
         <v>-1.0609999999999999</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22">
         <v>1000</v>
       </c>
-      <c r="D8" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="D8" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="32">
         <v>2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="24">
         <v>15</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="24">
         <v>30</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="26">
         <v>9</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="24">
         <v>9.6739999999999995</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="26">
         <v>-0.20300000000000001</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="22">
         <v>-0.81299999999999994</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="26">
         <v>-1.18</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="32">
         <v>-7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22">
         <v>-10000</v>
       </c>
-      <c r="D9" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="D9" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="32">
         <v>2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="24">
         <v>15</v>
       </c>
-      <c r="K9" s="2">
-        <v>29</v>
-      </c>
-      <c r="L9" s="4">
-        <v>29</v>
-      </c>
-      <c r="M9">
+      <c r="K9" s="24">
+        <v>29</v>
+      </c>
+      <c r="L9" s="26">
+        <v>29</v>
+      </c>
+      <c r="M9" s="22">
         <v>8.2430000000000003</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="26">
         <v>-4.6399999999999997E-2</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="22">
         <v>-0.66100000000000003</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="26">
         <v>-0.52500000000000002</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="32">
         <v>-6</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22">
         <v>10000</v>
       </c>
-      <c r="D10" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="D10" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="32">
         <v>2</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="24">
         <v>15</v>
       </c>
-      <c r="K10" s="2">
-        <v>29</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10" s="24">
+        <v>29</v>
+      </c>
+      <c r="L10" s="26">
         <v>58</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="22">
         <v>3.0379999999999998</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="26">
         <v>-0.70399999999999996</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="22">
         <v>-1.0529999999999999</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="26">
         <v>-0.98499999999999999</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="32">
         <v>-4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
         <v>12000</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="4"/>
-      <c r="M11">
+      <c r="I11" s="32"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="22">
         <v>1000</v>
       </c>
-      <c r="N11" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="N11" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
         <v>120000</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="4"/>
-      <c r="M12">
+      <c r="I12" s="32"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="22">
         <v>-10000</v>
       </c>
-      <c r="N12" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1200000</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="N12" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0</v>
+      </c>
+      <c r="P12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="32">
         <v>2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="24">
         <v>15</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="24">
         <v>33</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="26">
         <v>4</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="M13" s="22">
+        <v>0</v>
+      </c>
+      <c r="N13" s="26">
         <v>-0.10100000000000001</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
+      <c r="O13" s="22">
+        <v>0</v>
+      </c>
+      <c r="P13" s="26">
         <v>-0.94499999999999995</v>
       </c>
-      <c r="Q13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="Q13" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="26">
         <v>12000000</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="s">
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="4"/>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="I14" s="32"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="O14" s="22">
+        <v>0</v>
+      </c>
+      <c r="P14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
         <v>15</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="32">
         <v>2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="24">
         <v>15</v>
       </c>
-      <c r="K15" s="2">
-        <v>29</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="K15" s="24">
+        <v>29</v>
+      </c>
+      <c r="L15" s="26">
         <v>57</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="22">
         <v>4.9130000000000003</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="36">
         <v>-1.66</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="22">
         <v>0.71499999999999997</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="26">
         <v>-1.429</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="32">
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32">
         <v>30</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="32">
         <v>2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="24">
         <v>15</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="24">
         <v>30</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="26">
         <v>17</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="22">
         <v>-2.1320000000000001</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="26">
         <v>-2.13E-4</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="22">
         <v>-0.66900000000000004</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="26">
         <v>-1.399</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
         <v>45</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="32">
         <v>2</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="24">
         <v>15</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="24">
         <v>30</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="26">
         <v>2</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="22">
         <v>3.1019999999999999</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="26">
         <v>-0.64700000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="22">
         <v>1.0329999999999999</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="26">
         <v>-1.2490000000000001</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="32">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32">
         <v>60</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="32">
         <v>2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="24">
         <v>15</v>
       </c>
-      <c r="K18" s="2">
-        <v>29</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="K18" s="24">
+        <v>29</v>
+      </c>
+      <c r="L18" s="26">
         <v>32</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="22">
         <v>-9.7279999999999998</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="26">
         <v>-0.53300000000000003</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="22">
         <v>0.71499999999999997</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="26">
         <v>-1.1040000000000001</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E19" s="22">
         <v>100</v>
       </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="F19" s="26">
+        <v>0</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="4"/>
-      <c r="M19">
+      <c r="I19" s="32"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="22">
         <v>-100</v>
       </c>
-      <c r="N19" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E20">
+      <c r="N19" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="O19" s="22">
+        <v>0</v>
+      </c>
+      <c r="P19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E20" s="22">
         <v>1000</v>
       </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0</v>
+      </c>
+      <c r="H20" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="4"/>
-      <c r="M20">
+      <c r="I20" s="32"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="22">
         <v>100</v>
       </c>
-      <c r="N20" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E21">
+      <c r="N20" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="O20" s="22">
+        <v>0</v>
+      </c>
+      <c r="P20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E21" s="22">
         <v>-100</v>
       </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10" t="s">
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0</v>
+      </c>
+      <c r="H21" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="4"/>
-      <c r="M21">
+      <c r="I21" s="32"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="22">
         <v>-1000</v>
       </c>
-      <c r="N21" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E22">
+      <c r="N21" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="O21" s="22">
+        <v>0</v>
+      </c>
+      <c r="P21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E22" s="22">
         <v>-1000</v>
       </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="F22" s="26">
+        <v>0</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0</v>
+      </c>
+      <c r="H22" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="4"/>
-      <c r="M22">
+      <c r="I22" s="32"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="22">
         <v>1000</v>
       </c>
-      <c r="N22" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="N22" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="O22" s="22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
         <v>100</v>
       </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10" t="s">
+      <c r="G23" s="32">
+        <v>0</v>
+      </c>
+      <c r="H23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="4"/>
-      <c r="M23">
+      <c r="I23" s="32"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="22">
         <v>-10000</v>
       </c>
-      <c r="N23" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="N23" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="O23" s="22">
+        <v>0</v>
+      </c>
+      <c r="P23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E24" s="22">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
         <v>1000</v>
       </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="G24" s="32">
+        <v>0</v>
+      </c>
+      <c r="H24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="4"/>
-      <c r="M24">
+      <c r="I24" s="32"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="22">
         <v>10000</v>
       </c>
-      <c r="N24" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="N24" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="O24" s="22">
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E25" s="22">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
         <v>-100</v>
       </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10" t="s">
+      <c r="G25" s="32">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="L25" s="4"/>
-      <c r="N25" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="P25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="I25" s="32"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="O25" s="22"/>
+      <c r="P25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="22"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
         <v>-1000</v>
       </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10" t="s">
+      <c r="G26" s="32">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="L26" s="4"/>
-      <c r="N26" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="25" t="s">
+      <c r="I26" s="32"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="O26" s="22"/>
+      <c r="P26" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="22">
         <v>2500</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1200000</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="L28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19">
-        <v>1200000</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="L29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="19">
-        <v>1200000</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="L30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="19">
-        <v>1200000</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="L31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19">
-        <v>1200000</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" s="19">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="L32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="C28" s="22">
+        <v>0</v>
+      </c>
+      <c r="D28" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="26">
+        <v>0</v>
+      </c>
+      <c r="G28" s="32">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="32">
+        <v>2</v>
+      </c>
+      <c r="J28" s="24">
+        <v>15</v>
+      </c>
+      <c r="K28" s="24">
+        <v>26</v>
+      </c>
+      <c r="L28" s="26">
+        <v>44</v>
+      </c>
+      <c r="M28" s="24">
+        <v>-61.226999999999997</v>
+      </c>
+      <c r="N28" s="26">
+        <v>-0.155</v>
+      </c>
+      <c r="O28" s="24">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="P28" s="26">
+        <v>-1.0620000000000001</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22">
+        <v>2500</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
+      <c r="D29" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
+        <v>0</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32">
+        <v>1</v>
+      </c>
+      <c r="I29" s="32">
+        <v>2</v>
+      </c>
+      <c r="J29" s="24">
+        <v>15</v>
+      </c>
+      <c r="K29" s="24">
+        <v>16</v>
+      </c>
+      <c r="L29" s="26">
+        <v>6</v>
+      </c>
+      <c r="M29" s="22">
+        <v>106.49299999999999</v>
+      </c>
+      <c r="N29" s="26">
+        <v>-1.026</v>
+      </c>
+      <c r="O29" s="22">
+        <v>5.4059999999999997</v>
+      </c>
+      <c r="P29" s="26">
+        <v>-1.2849999999999999</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22">
+        <v>2500</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+      <c r="D30" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E30" s="22">
+        <v>0</v>
+      </c>
+      <c r="F30" s="26">
+        <v>0</v>
+      </c>
+      <c r="G30" s="32">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32">
+        <v>2</v>
+      </c>
+      <c r="I30" s="32">
+        <v>2</v>
+      </c>
+      <c r="J30" s="24">
+        <v>13</v>
+      </c>
+      <c r="K30" s="24">
+        <v>17</v>
+      </c>
+      <c r="L30" s="26">
+        <v>38</v>
+      </c>
+      <c r="M30" s="24">
+        <v>-191.227</v>
+      </c>
+      <c r="N30" s="26">
+        <v>-0.182</v>
+      </c>
+      <c r="O30" s="24">
+        <v>8.0609999999999999</v>
+      </c>
+      <c r="P30" s="26">
+        <v>-1.222</v>
+      </c>
+      <c r="Q30" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22">
+        <v>2500</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
+      <c r="D31" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0</v>
+      </c>
+      <c r="G31" s="32">
+        <v>0</v>
+      </c>
+      <c r="H31" s="32">
+        <v>4</v>
+      </c>
+      <c r="I31" s="32">
+        <v>1</v>
+      </c>
+      <c r="J31" s="24">
+        <v>12</v>
+      </c>
+      <c r="K31" s="24">
+        <v>25</v>
+      </c>
+      <c r="L31" s="26">
+        <v>47</v>
+      </c>
+      <c r="M31" s="24">
+        <v>174476.554</v>
+      </c>
+      <c r="N31" s="26">
+        <v>-0.33600000000000002</v>
+      </c>
+      <c r="O31" s="24">
+        <v>9.7940000000000005</v>
+      </c>
+      <c r="P31" s="26">
+        <v>-3.657</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+      <c r="D32" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+      <c r="F32" s="37">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B33" s="22">
+        <v>5000</v>
+      </c>
+      <c r="C33" s="22">
+        <v>0</v>
+      </c>
+      <c r="D33" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0</v>
+      </c>
+      <c r="F33" s="37">
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="41">
+        <v>2</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B34" s="22">
+        <v>5000</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0</v>
+      </c>
+      <c r="D34" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+      <c r="F34" s="37">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0</v>
+      </c>
+      <c r="H34" s="41">
+        <v>5</v>
+      </c>
+      <c r="I34" s="38">
+        <v>3</v>
+      </c>
+      <c r="J34" s="24">
+        <v>4</v>
+      </c>
+      <c r="K34" s="24">
+        <v>11</v>
+      </c>
+      <c r="L34" s="37">
+        <v>8</v>
+      </c>
+      <c r="M34" s="24">
+        <v>-396348.19300000003</v>
+      </c>
+      <c r="N34" s="24">
+        <v>-1.0449999999999999</v>
+      </c>
+      <c r="O34" s="24">
+        <v>-364.88</v>
+      </c>
+      <c r="P34" s="24">
+        <v>-5.73</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B35" s="22">
+        <v>5000</v>
+      </c>
+      <c r="C35" s="22">
+        <v>0</v>
+      </c>
+      <c r="D35" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0</v>
+      </c>
+      <c r="F35" s="37">
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
+        <v>0</v>
+      </c>
+      <c r="H35" s="41">
+        <v>10</v>
+      </c>
+      <c r="I35" s="38">
+        <v>4</v>
+      </c>
+      <c r="J35" s="24">
+        <v>6</v>
+      </c>
+      <c r="K35" s="24">
+        <v>43</v>
+      </c>
+      <c r="L35" s="37">
+        <v>9</v>
+      </c>
+      <c r="M35" s="24">
+        <v>-1771801.34</v>
+      </c>
+      <c r="N35" s="24">
+        <v>-13.204000000000001</v>
+      </c>
+      <c r="O35" s="24">
+        <v>-337.43</v>
+      </c>
+      <c r="P35" s="24">
+        <v>-17.091000000000001</v>
+      </c>
+      <c r="Q35" s="24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B36" s="22">
+        <v>10000</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+      <c r="D36" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0</v>
+      </c>
+      <c r="F36" s="37">
+        <v>0</v>
+      </c>
+      <c r="G36" s="22">
+        <v>0</v>
+      </c>
+      <c r="H36" s="41">
+        <v>1</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B37" s="22">
+        <v>10000</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E37" s="22">
+        <v>0</v>
+      </c>
+      <c r="F37" s="37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0</v>
+      </c>
+      <c r="H37" s="41">
+        <v>2</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B38" s="22">
+        <v>10000</v>
+      </c>
+      <c r="C38" s="22">
+        <v>0</v>
+      </c>
+      <c r="D38" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E38" s="22">
+        <v>0</v>
+      </c>
+      <c r="F38" s="37">
+        <v>0</v>
+      </c>
+      <c r="G38" s="22">
+        <v>0</v>
+      </c>
+      <c r="H38" s="41">
+        <v>5</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B39" s="22">
+        <v>10000</v>
+      </c>
+      <c r="C39" s="22">
+        <v>0</v>
+      </c>
+      <c r="D39" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E39" s="22">
+        <v>0</v>
+      </c>
+      <c r="F39" s="37">
+        <v>0</v>
+      </c>
+      <c r="G39" s="22">
+        <v>0</v>
+      </c>
+      <c r="H39" s="41">
+        <v>7</v>
+      </c>
+      <c r="I39" s="24">
+        <v>10</v>
+      </c>
+      <c r="J39" s="24">
+        <v>9</v>
+      </c>
+      <c r="K39" s="24">
+        <v>2</v>
+      </c>
+      <c r="L39" s="24">
+        <v>21</v>
+      </c>
+      <c r="M39" s="24">
+        <v>-2342341.19</v>
+      </c>
+      <c r="N39" s="24">
+        <v>-1.9410000000000001</v>
+      </c>
+      <c r="O39" s="24">
+        <v>647.58000000000004</v>
+      </c>
+      <c r="P39" s="24">
+        <v>-3.7970000000000002</v>
+      </c>
+      <c r="Q39" s="24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B40" s="22">
+        <v>10000</v>
+      </c>
+      <c r="C40" s="22">
+        <v>0</v>
+      </c>
+      <c r="D40" s="37">
+        <v>1200000</v>
+      </c>
+      <c r="E40" s="22">
+        <v>0</v>
+      </c>
+      <c r="F40" s="37">
+        <v>0</v>
+      </c>
+      <c r="G40" s="22">
+        <v>0</v>
+      </c>
+      <c r="H40" s="41">
+        <v>10</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="45" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
